--- a/pop_locaitons.xlsx
+++ b/pop_locaitons.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,19 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
-  <si>
-    <t>Pop1.Location</t>
-  </si>
-  <si>
-    <t>Pop1.Ecotype</t>
-  </si>
-  <si>
-    <t>Pop2.Location</t>
-  </si>
-  <si>
-    <t>Pop2.Ecotype</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="27">
   <si>
     <t>PNW - Catch</t>
   </si>
@@ -51,9 +39,6 @@
     <t>Nova Scotia</t>
   </si>
   <si>
-    <t>Russia</t>
-  </si>
-  <si>
     <t>Paxton</t>
   </si>
   <si>
@@ -96,85 +81,25 @@
     <t>Geneva</t>
   </si>
   <si>
-    <t>comparison</t>
-  </si>
-  <si>
-    <t>bool.robl</t>
-  </si>
-  <si>
-    <t>boos.cons</t>
-  </si>
-  <si>
-    <t>boos.misl</t>
-  </si>
-  <si>
-    <t>conl.ferl</t>
-  </si>
-  <si>
-    <t>cons.genl</t>
-  </si>
-  <si>
-    <t>constance</t>
-  </si>
-  <si>
-    <t>geneva</t>
-  </si>
-  <si>
-    <t>gens.conl</t>
-  </si>
-  <si>
-    <t>group1</t>
-  </si>
-  <si>
-    <t>group2</t>
-  </si>
-  <si>
-    <t>hohl.genl</t>
-  </si>
-  <si>
-    <t>joel.misl</t>
-  </si>
-  <si>
-    <t>joes</t>
-  </si>
-  <si>
-    <t>joes.bool</t>
-  </si>
-  <si>
-    <t>lq</t>
-  </si>
-  <si>
-    <t>miss.robl</t>
-  </si>
-  <si>
-    <t>misty</t>
-  </si>
-  <si>
-    <t>paxb.prib</t>
-  </si>
-  <si>
-    <t>paxl.prib</t>
-  </si>
-  <si>
-    <t>paxton</t>
-  </si>
-  <si>
-    <t>priest</t>
-  </si>
-  <si>
-    <t>pril.paxb</t>
-  </si>
-  <si>
-    <t>roberts</t>
-  </si>
-  <si>
-    <t>robs.gens</t>
-  </si>
-  <si>
-    <t>robs.joel</t>
-  </si>
-  <si>
     <t>Fer</t>
+  </si>
+  <si>
+    <t>Little Quarry</t>
+  </si>
+  <si>
+    <t>Russia1</t>
+  </si>
+  <si>
+    <t>Russia2</t>
+  </si>
+  <si>
+    <t>Russia3</t>
+  </si>
+  <si>
+    <t>Russia4</t>
+  </si>
+  <si>
+    <t>BC</t>
   </si>
 </sst>
 </file>
@@ -206,12 +131,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -246,8 +177,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -274,6 +206,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -599,393 +536,538 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:F21"/>
+      <selection activeCell="AG25" sqref="AG25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="V1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
+      <c r="AI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="T2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y25" s="1"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA27" s="1"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB28" s="1"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC29" s="1"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD30" s="1"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="1"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF32" s="1"/>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="1"/>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH34" s="1"/>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI35" s="1"/>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="H21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="H22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="H25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="H26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="H27" t="s">
-        <v>50</v>
-      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ36" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A2:B39">
+    <sortCondition ref="A2:A39"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
